--- a/indexatieruimte vaststelling 2023 DEF 20231111.xlsx
+++ b/indexatieruimte vaststelling 2023 DEF 20231111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josbe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED135920-3535-4F3A-AFDB-3D2D3817A452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FD569CD-212C-43A0-B6C8-C336B6660859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1522" yWindow="1250" windowWidth="24561" windowHeight="12702" xr2:uid="{5B142256-5719-4C30-A5D3-1703D4D9E3F4}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{5B142256-5719-4C30-A5D3-1703D4D9E3F4}"/>
   </bookViews>
   <sheets>
     <sheet name="calc" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="157">
   <si>
     <t>Rekenmodule Vaststelling Indexatie 2023</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Pensioenfonds</t>
-  </si>
-  <si>
-    <t>PFXX</t>
   </si>
   <si>
     <t>Pensioenvoorbeeld</t>
@@ -529,6 +526,12 @@
   <si>
     <t>https://www.cbs.nl/-/media/_excel/2023/26/onderzoeksreeks-consumentenprijsindex-elektriciteit-en-gas.xlsx</t>
   </si>
+  <si>
+    <t>PFZW</t>
+  </si>
+  <si>
+    <t>versie: 20231112</t>
+  </si>
 </sst>
 </file>
 
@@ -550,7 +553,7 @@
     <numFmt numFmtId="175" formatCode="#,##0.00&quot; &quot;"/>
     <numFmt numFmtId="176" formatCode="#,##0.00000&quot;  &quot;"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,6 +706,18 @@
     <font>
       <sz val="10"/>
       <color rgb="FF3F3F76"/>
+      <name val="Arial Nova"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
       <name val="Arial Nova"/>
       <family val="2"/>
     </font>
@@ -978,7 +993,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
@@ -1240,6 +1255,114 @@
     <xf numFmtId="168" fontId="17" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="10" fontId="17" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="17" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="169" fontId="24" fillId="6" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1248,12 +1371,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,15 +1378,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="17" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,99 +1405,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1428,6 +1443,10 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1836,7 +1855,7 @@
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1860,18 +1879,18 @@
   <sheetData>
     <row r="1" spans="1:18" ht="4.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="132"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="163"/>
       <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,25 +1911,25 @@
       <c r="B4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="165" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="43"/>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="129" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="123"/>
       <c r="H4" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="44"/>
+      <c r="J4" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="163" t="s">
-        <v>5</v>
-      </c>
-      <c r="K4" s="164"/>
+      <c r="K4" s="127"/>
       <c r="L4" s="43"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -1919,26 +1938,26 @@
     <row r="5" spans="1:18" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="47"/>
       <c r="B5" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="135" t="s">
+      <c r="D5" s="167"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="129" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" s="136"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="122" t="s">
-        <v>8</v>
       </c>
       <c r="G5" s="123"/>
       <c r="H5" s="99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="44"/>
       <c r="J5" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="83" t="s">
         <v>10</v>
-      </c>
-      <c r="K5" s="83" t="s">
-        <v>11</v>
       </c>
       <c r="L5" s="43"/>
       <c r="P5"/>
@@ -1948,15 +1967,15 @@
     <row r="6" spans="1:18" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="166" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="135" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="129" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="122" t="s">
-        <v>14</v>
       </c>
       <c r="G6" s="123"/>
       <c r="H6" s="100">
@@ -1970,15 +1989,15 @@
     <row r="7" spans="1:18" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
       <c r="B7" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="156">
+        <v>0.06</v>
+      </c>
+      <c r="D7" s="157"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="129" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="120">
-        <v>0.06</v>
-      </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="122" t="s">
-        <v>16</v>
       </c>
       <c r="G7" s="123"/>
       <c r="H7" s="101">
@@ -2005,16 +2024,16 @@
     </row>
     <row r="9" spans="1:18" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="47"/>
-      <c r="B9" s="140" t="str">
+      <c r="B9" s="136" t="str">
         <f>" Bepaling benodigde indexatie ruimte 2023 o.b.v. herziene CPI"</f>
         <v xml:space="preserve"> Bepaling benodigde indexatie ruimte 2023 o.b.v. herziene CPI</v>
       </c>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="138"/>
       <c r="I9" s="43"/>
       <c r="J9" s="80">
         <f>K9</f>
@@ -2036,14 +2055,14 @@
         <f>IF(calcHelp!$C$71, calcHelp!N34,calcHelp!P34)</f>
         <v>15,3%</v>
       </c>
-      <c r="D10" s="152" t="str">
+      <c r="D10" s="130" t="str">
         <f>IF($H$5="Ja",IF(calcHelp!$C$71,calcHelp!E54,calcHelp!Q34),"")</f>
         <v>Herz. CPI: sep. 2021 :110,26; sep. 2023 :127,16</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="154"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="132"/>
       <c r="I10" s="43"/>
       <c r="J10" s="70"/>
       <c r="K10" s="76">
@@ -2062,14 +2081,14 @@
         <f>calcHelp!N24</f>
         <v>6,0%</v>
       </c>
-      <c r="D11" s="127" t="str">
+      <c r="D11" s="133" t="str">
         <f>IF($H$5="Ja",IF(calcHelp!$C$71,calcHelp!E55,"o.b.v. 12-mnds gem. inflatie "&amp;calcHelp!H9&amp;"&amp; "&amp;calcHelp!H10),"""")</f>
         <v xml:space="preserve"> 15,3%  = 127,16 / 110,26 - 1 </v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="129"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="135"/>
       <c r="I11" s="53"/>
       <c r="J11" s="70">
         <f>K9*calcHelp!N24</f>
@@ -2081,20 +2100,20 @@
     <row r="12" spans="1:18" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="47"/>
       <c r="B12" s="64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="106" t="str">
         <f>IF(calcHelp!$C$71,IF(calcHelp!Q30,calcHelp!Q29,calcHelp!Q28),TEXT(-1+(1+C10)/(1+C11),calcHelp!C13))</f>
         <v>8,8%</v>
       </c>
-      <c r="D12" s="147" t="str">
+      <c r="D12" s="120" t="str">
         <f>IF(calcHelp!Q30,"",IF($H$5="Ja","    =   ( 1 + "&amp;TEXT(1*C10,calcHelp!$C$14)&amp;" ) / ( 1 + "&amp;TEXT(1*C11,calcHelp!$C$14)&amp;" ) - 1 ","" ))</f>
         <v xml:space="preserve">    =   ( 1 + 15,3% ) / ( 1 + 6,0% ) - 1 </v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="148"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="121"/>
       <c r="I12" s="54"/>
       <c r="J12" s="71">
         <f>(J9+J11)*IF(calcHelp!$C$71, calcHelp!N26,calcHelp!T28)</f>
@@ -2106,15 +2125,15 @@
     </row>
     <row r="13" spans="1:18" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
-      <c r="B13" s="122" t="str">
+      <c r="B13" s="129" t="str">
         <f>IF(calcHelp!Q30,IF($H$5="Ja",""&amp;calcHelp!N30,""),"")</f>
         <v/>
       </c>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="123"/>
       <c r="I13" s="55"/>
       <c r="J13" s="70">
@@ -2143,15 +2162,15 @@
     </row>
     <row r="15" spans="1:18" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="47"/>
-      <c r="B15" s="140" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="136" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="138"/>
       <c r="I15" s="43"/>
       <c r="J15" s="80">
         <f>K15</f>
@@ -2173,14 +2192,14 @@
         <f>IF(calcHelp!$C$71,calcHelp!N35,calcHelp!P35)</f>
         <v>14,5%</v>
       </c>
-      <c r="D16" s="124" t="str">
+      <c r="D16" s="158" t="str">
         <f>IF($H$5="Ja",IF(calcHelp!$C$71,calcHelp!E60,"o.b.v. 12-mnds gem. inflatie van "),"")</f>
         <v>CPI: sep. 2021 :110,79; sep. 2022 :126,89</v>
       </c>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="126"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="160"/>
       <c r="I16" s="43"/>
       <c r="J16" s="69"/>
       <c r="K16" s="75">
@@ -2192,20 +2211,20 @@
     <row r="17" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
       <c r="B17" s="59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="112" t="str">
         <f>calcHelp!N24</f>
         <v>6,0%</v>
       </c>
-      <c r="D17" s="127" t="str">
+      <c r="D17" s="133" t="str">
         <f>IF($H$5="Ja",IF(calcHelp!$C$71,calcHelp!E61,calcHelp!H9),"")</f>
         <v xml:space="preserve">14,5%    =   126,89 / 110,79 - 1 </v>
       </c>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="135"/>
       <c r="I17" s="58"/>
       <c r="J17" s="69">
         <f>J15*calcHelp!N24</f>
@@ -2217,20 +2236,20 @@
     <row r="18" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="47"/>
       <c r="B18" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="106" t="str">
         <f>IF(calcHelp!$C$71,calcHelp!Q37,calcHelp!Q37)</f>
         <v>8,5%</v>
       </c>
-      <c r="D18" s="147" t="str">
+      <c r="D18" s="120" t="str">
         <f>IF(calcHelp!Q30,"",IF($H$5="Ja","    =   "&amp;TEXT(1*C16,calcHelp!$C$14)&amp;" - "&amp;TEXT(1*C17,calcHelp!$C$14)&amp;"","" ))</f>
         <v xml:space="preserve">    =   14,5% - 6,0%</v>
       </c>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="148"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="121"/>
       <c r="I18" s="43"/>
       <c r="J18" s="72">
         <f>(J15)*calcHelp!N37</f>
@@ -2242,16 +2261,16 @@
     </row>
     <row r="19" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47"/>
-      <c r="B19" s="137" t="str">
+      <c r="B19" s="143" t="str">
         <f>IF($H$5="Ja",IF(calcHelp!Q38,""&amp;calcHelp!N38,""),"")</f>
         <v/>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="139"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="145"/>
       <c r="I19" s="53"/>
       <c r="J19" s="69">
         <f>SUM(J15:J18)</f>
@@ -2279,15 +2298,15 @@
     </row>
     <row r="21" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47"/>
-      <c r="B21" s="140" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="141"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="142"/>
+      <c r="B21" s="136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="137"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="138"/>
       <c r="I21" s="43"/>
       <c r="J21" s="69"/>
       <c r="K21" s="75"/>
@@ -2295,24 +2314,24 @@
     </row>
     <row r="22" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
-      <c r="B22" s="157" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="159" t="str">
+      <c r="B22" s="152" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="154" t="str">
         <f>IF(calcHelp!$C$71,calcHelp!Q41,calcHelp!S41)</f>
         <v>0,2%</v>
       </c>
-      <c r="D22" s="152" t="str">
+      <c r="D22" s="130" t="str">
         <f>IF($H$5="Ja",IF(calcHelp!$C$71,calcHelp!E66,"o.b.v. 12-mnds gem. inflatie van "),"")</f>
         <v>CPI: sep. 2022 :126,89; sep. 2023 :127,16</v>
       </c>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="154"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="132"/>
       <c r="I22" s="56"/>
       <c r="J22" s="69"/>
-      <c r="K22" s="165">
+      <c r="K22" s="128">
         <f>IF(calcHelp!$C$71,calcHelp!N41,calcHelp!R41)*K19</f>
         <v>24.363622034833078</v>
       </c>
@@ -2320,35 +2339,35 @@
     </row>
     <row r="23" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="160"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="155"/>
       <c r="D23" s="149" t="str">
         <f>IF($H$5="Ja",IF(calcHelp!$C$71,TEXT(1*calcHelp!Q41,calcHelp!C14)&amp;"    =   "&amp;TEXT(calcHelp!C65,"0,00")&amp;" / "&amp;TEXT(calcHelp!C64,"0,00")&amp;" - 1 ",calcHelp!H10),"")</f>
         <v xml:space="preserve">0,2%    =   127,16 / 126,89 - 1 </v>
       </c>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="142"/>
       <c r="I23" s="56"/>
       <c r="J23" s="69"/>
-      <c r="K23" s="165"/>
+      <c r="K23" s="128"/>
       <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="47"/>
       <c r="B24" s="65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="113" t="str">
         <f>IF(calcHelp!$C$71,calcHelp!Q42,calcHelp!S42)</f>
         <v>0,2%</v>
       </c>
-      <c r="D24" s="155"/>
-      <c r="E24" s="155"/>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="156"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="151"/>
       <c r="I24" s="61"/>
       <c r="J24" s="72">
         <f>IF(calcHelp!$C$71,calcHelp!N42,calcHelp!R42)*J19</f>
@@ -2359,15 +2378,15 @@
     </row>
     <row r="25" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
-      <c r="B25" s="122" t="str">
+      <c r="B25" s="129" t="str">
         <f>calcHelp!M43</f>
         <v/>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
+      <c r="C25" s="122"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="123"/>
       <c r="I25" s="43"/>
       <c r="J25" s="69">
@@ -2396,15 +2415,15 @@
     </row>
     <row r="27" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
-      <c r="B27" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="145"/>
+      <c r="B27" s="146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="148"/>
       <c r="I27" s="43"/>
       <c r="J27" s="80">
         <f>J9</f>
@@ -2419,17 +2438,17 @@
     <row r="28" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="114" t="str">
         <f>C17</f>
         <v>6,0%</v>
       </c>
-      <c r="D28" s="153"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="154"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="132"/>
       <c r="I28" s="62"/>
       <c r="J28" s="69">
         <f>J17</f>
@@ -2441,17 +2460,17 @@
     <row r="29" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47"/>
       <c r="B29" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="115" t="str">
         <f>calcHelp!Q37</f>
         <v>8,5%</v>
       </c>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="167"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="140"/>
       <c r="I29" s="60"/>
       <c r="J29" s="69">
         <f>J18</f>
@@ -2463,17 +2482,17 @@
     <row r="30" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="47"/>
       <c r="B30" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="116" t="str">
         <f>C24</f>
         <v>0,2%</v>
       </c>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="151"/>
+      <c r="D30" s="141"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="142"/>
       <c r="I30" s="60"/>
       <c r="J30" s="72">
         <f>J24</f>
@@ -2485,20 +2504,20 @@
     <row r="31" spans="1:13" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47"/>
       <c r="B31" s="64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="117" t="str">
         <f>TEXT(-1+(1+calcHelp!N24+calcHelp!N37)*(1+calcHelp!N42),calcHelp!C13)</f>
         <v>14,7%</v>
       </c>
-      <c r="D31" s="147" t="str">
+      <c r="D31" s="120" t="str">
         <f>IF(calcHelp!Q43,"",IF($H$5="Ja"," =   ( 1 + "&amp;TEXT(1*C28,calcHelp!$C$14)&amp;" + "&amp;TEXT(1*C29,calcHelp!$C$14)&amp;" ) / ( 1 + "&amp;TEXT(1*C30,calcHelp!$C$14)&amp;" ) - 1 ","" ))</f>
         <v xml:space="preserve"> =   ( 1 + 6,0% + 8,5% ) / ( 1 + 0,2% ) - 1 </v>
       </c>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="148"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="120"/>
+      <c r="H31" s="121"/>
       <c r="I31" s="63"/>
       <c r="J31" s="69">
         <f>SUM(J27:J30)</f>
@@ -2517,13 +2536,13 @@
         <f>C10</f>
         <v>15,3%</v>
       </c>
-      <c r="D32" s="146" t="str">
+      <c r="D32" s="122" t="str">
         <f>IF($H$5="Ja","Op basis van HERZIENE "&amp;C5,"")</f>
         <v>Op basis van HERZIENE CPI</v>
       </c>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
       <c r="H32" s="123"/>
       <c r="I32" s="63"/>
       <c r="J32" s="84"/>
@@ -2535,14 +2554,14 @@
     </row>
     <row r="33" spans="1:22" s="48" customFormat="1" ht="17.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="47"/>
-      <c r="B33" s="122" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
+      <c r="B33" s="129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="123"/>
       <c r="I33" s="63"/>
       <c r="J33" s="69">
@@ -2565,14 +2584,14 @@
         <f>TEXT(ABS(C32-C31),calcHelp!C13)</f>
         <v>0,6%</v>
       </c>
-      <c r="D34" s="161" t="str">
+      <c r="D34" s="124" t="str">
         <f>IF($H$5="Ja",IF(C32&gt;C31,calcHelp!D51,calcHelp!E51),"")</f>
         <v xml:space="preserve">    =  15,3%  - 14,7% </v>
       </c>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="162"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="125"/>
       <c r="I34" s="63"/>
       <c r="J34" s="85">
         <f>ABS(J33-K33)</f>
@@ -2591,8 +2610,10 @@
       <c r="G35" s="43"/>
       <c r="H35" s="43"/>
       <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
+      <c r="J35" s="182" t="s">
+        <v>156</v>
+      </c>
+      <c r="K35" s="182"/>
       <c r="L35" s="43"/>
     </row>
     <row r="36" spans="1:22" s="41" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,12 +2910,33 @@
       <c r="T79" s="73"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Oo8gQBravOrN+JK/FSYbry0RiA6abZePAoA8nrIgK2+uq4+tXJ1i3FFm9sVu/gVNR7ZCFMEXgSwNWN/+gWwmHA==" saltValue="ludvLaLsS2si+Jxq83VJAA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PdyxL3Nx45GN1CynxHsOBhIQ4dMj80UxzRD4E8tS0B/XuSHkVu3vJO5WYsg0LGk9X8mO95XUMQmeY3qU0lcIzQ==" saltValue="7B+SAf53MXI2cJAKRx2Vuw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="C4:D7" name="Bereik1"/>
     <protectedRange sqref="H4:H7" name="Bereik2"/>
   </protectedRanges>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D34:H34"/>
@@ -2911,26 +2953,6 @@
     <mergeCell ref="D28:H28"/>
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D30:H30"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{686805D1-10B7-4BDD-A516-0829219BB421}">
@@ -2999,7 +3021,7 @@
     </row>
     <row r="5" spans="2:43" x14ac:dyDescent="0.25">
       <c r="J5" s="173" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="174"/>
       <c r="L5" s="174"/>
@@ -3008,7 +3030,7 @@
       <c r="O5" s="41"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" s="174"/>
       <c r="S5" s="174"/>
@@ -3044,15 +3066,15 @@
       </c>
       <c r="G6" s="171"/>
       <c r="J6" s="168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K6" s="169"/>
       <c r="L6" s="168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="169"/>
       <c r="N6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="170" t="str">
         <f>F6</f>
@@ -3060,51 +3082,51 @@
       </c>
       <c r="R6" s="171"/>
       <c r="T6" s="168" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" s="169"/>
       <c r="V6" s="168" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W6" s="169"/>
       <c r="X6" s="18"/>
     </row>
     <row r="7" spans="2:43" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
       <c r="J7" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
       <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
       <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
         <v>35</v>
       </c>
-      <c r="R7" t="s">
-        <v>36</v>
-      </c>
       <c r="T7" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="U7" t="s">
         <v>35</v>
       </c>
-      <c r="U7" t="s">
-        <v>36</v>
-      </c>
       <c r="V7" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" t="s">
         <v>35</v>
-      </c>
-      <c r="W7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:43" x14ac:dyDescent="0.25">
@@ -3317,18 +3339,18 @@
     </row>
     <row r="12" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B12" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" s="67"/>
       <c r="K12" s="73"/>
     </row>
     <row r="13" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B13" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="18" t="str">
         <f>IF(calc!H6=1,"0,0%"&amp;C12,IF(calc!H6=2,"0,00%"&amp;C12,"0,000%"&amp;C12))</f>
@@ -3339,7 +3361,7 @@
     </row>
     <row r="14" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="18" t="str">
         <f>IF(calc!H6=1,"0,0%",IF(calc!H6=2,"0,00%","0,000%"))</f>
@@ -3350,7 +3372,7 @@
     </row>
     <row r="15" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B15" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="18" t="str">
         <f>"000,00"&amp;C12</f>
@@ -3361,7 +3383,7 @@
     </row>
     <row r="16" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="18" t="str">
         <f>"000,00"</f>
@@ -3376,7 +3398,7 @@
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18">
         <f>IF(RIGHT(calc!C5)="I",0,1)</f>
@@ -3387,20 +3409,20 @@
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" s="67"/>
       <c r="K19" s="73"/>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="67"/>
       <c r="K20" s="73"/>
@@ -3424,7 +3446,7 @@
       <c r="J24" s="67"/>
       <c r="K24" s="73"/>
       <c r="M24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N24" t="str">
         <f>TEXT(calc!C7,C13)</f>
@@ -3447,14 +3469,14 @@
       <c r="J27" s="67"/>
       <c r="K27" s="73"/>
       <c r="T27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="3:21" x14ac:dyDescent="0.25">
       <c r="J28" s="67"/>
       <c r="K28" s="73"/>
       <c r="M28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N28" s="17">
         <f>ROUND(N26,calc!$H$6+2)</f>
@@ -3527,20 +3549,20 @@
       <c r="J33" s="67"/>
       <c r="K33" s="73"/>
       <c r="N33" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O33" s="97" t="s">
         <v>49</v>
-      </c>
-      <c r="O33" s="97" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J34" s="67"/>
       <c r="K34" s="73"/>
       <c r="L34" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" t="s">
         <v>51</v>
-      </c>
-      <c r="M34" t="s">
-        <v>52</v>
       </c>
       <c r="N34" s="17" t="str">
         <f>TEXT(ROUND(-1+C48/C47,calc!$H$6+2),C13)</f>
@@ -3564,10 +3586,10 @@
       <c r="J35" s="67"/>
       <c r="K35" s="73"/>
       <c r="L35" t="s">
+        <v>52</v>
+      </c>
+      <c r="M35" t="s">
         <v>53</v>
-      </c>
-      <c r="M35" t="s">
-        <v>54</v>
       </c>
       <c r="N35" t="str">
         <f>TEXT(ROUND(-1+C58/C57,calc!$H$6+2),C13)</f>
@@ -3590,7 +3612,7 @@
       <c r="J37" s="67"/>
       <c r="K37" s="73"/>
       <c r="M37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N37" s="34">
         <f>MAX(ROUND(calc!C16-calc!C17,calc!$H$6+2),0)</f>
@@ -3607,7 +3629,7 @@
       <c r="J38" s="67"/>
       <c r="K38" s="73"/>
       <c r="M38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N38" s="37" t="str">
         <f>IF(Q38,"N.B. Er is in 2022 "&amp;TEXT(1*R38,C14)&amp;" meer indexatie gegeven dan is toegestaan ("&amp;TEXT(1*calc!C16,C14)&amp;")","nvt")</f>
@@ -3635,14 +3657,14 @@
       <c r="J40" s="67"/>
       <c r="K40" s="73"/>
       <c r="R40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="J41" s="67"/>
       <c r="K41" s="73"/>
       <c r="M41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N41" s="33">
         <f>F10/F9-1</f>
@@ -3667,7 +3689,7 @@
       <c r="J42" s="67"/>
       <c r="K42" s="73"/>
       <c r="M42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N42" s="34">
         <f>MAX(0,N41)</f>
@@ -3700,7 +3722,7 @@
       <c r="J44" s="67"/>
       <c r="K44" s="73"/>
       <c r="M44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N44" s="34">
         <f>N37*(1+N42)+N42</f>
@@ -3719,7 +3741,7 @@
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J46" s="67"/>
       <c r="K46" s="73"/>
@@ -3763,7 +3785,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D51" s="48" t="str">
         <f>IF(Q43,"",IF(calc!$H$5="Ja","    =  "&amp;TEXT(1*calc!C32,$C$14)&amp;"  - "&amp;TEXT(1*calc!C31,$C$14)&amp;" ","" ))</f>
@@ -3816,7 +3838,7 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" s="48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
@@ -3920,7 +3942,7 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" s="48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="48"/>
       <c r="D63" s="48"/>
@@ -4036,7 +4058,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" s="176" t="b">
         <f>(calc!C6="Jaarmutatie CPI")</f>
@@ -4068,7 +4090,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J77" s="67"/>
       <c r="K77" s="73"/>
@@ -4124,12 +4146,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -4139,17 +4161,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4163,7 +4185,7 @@
   <dimension ref="B1:R146"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+      <selection activeCell="Q55" sqref="Q55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="10.9" x14ac:dyDescent="0.2"/>
@@ -4180,66 +4202,66 @@
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="89" t="s">
         <v>70</v>
-      </c>
-      <c r="L2" s="89" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="L3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="2:18" ht="22.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="H4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="L4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="P4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
@@ -4263,13 +4285,13 @@
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="7"/>
@@ -4293,7 +4315,7 @@
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="14">
@@ -4337,7 +4359,7 @@
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14">
@@ -4381,7 +4403,7 @@
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14">
@@ -4425,7 +4447,7 @@
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14">
@@ -4469,7 +4491,7 @@
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14">
@@ -4513,7 +4535,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14">
@@ -4557,7 +4579,7 @@
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="14">
@@ -4600,7 +4622,7 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14">
@@ -4643,7 +4665,7 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="14">
@@ -4686,7 +4708,7 @@
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="14">
@@ -4729,7 +4751,7 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14">
@@ -4772,7 +4794,7 @@
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="14">
@@ -4815,7 +4837,7 @@
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14">
@@ -4858,7 +4880,7 @@
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="14">
@@ -4901,7 +4923,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="14">
@@ -4944,7 +4966,7 @@
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14">
@@ -4987,7 +5009,7 @@
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14">
@@ -5030,7 +5052,7 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14">
@@ -5073,7 +5095,7 @@
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="14">
@@ -5116,7 +5138,7 @@
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="14">
@@ -5159,7 +5181,7 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="14">
@@ -5202,7 +5224,7 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="14">
@@ -5245,7 +5267,7 @@
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="14">
@@ -5288,7 +5310,7 @@
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14">
@@ -5331,7 +5353,7 @@
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14">
@@ -5374,7 +5396,7 @@
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14">
@@ -5417,7 +5439,7 @@
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14">
@@ -5460,7 +5482,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14">
@@ -5503,7 +5525,7 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14">
@@ -5546,7 +5568,7 @@
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14">
@@ -5589,7 +5611,7 @@
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14">
@@ -5632,7 +5654,7 @@
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="14">
@@ -5675,7 +5697,7 @@
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14">
@@ -5718,7 +5740,7 @@
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="14">
@@ -5761,7 +5783,7 @@
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="14">
@@ -5804,7 +5826,7 @@
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="14">
@@ -5847,7 +5869,7 @@
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="14">
@@ -5890,7 +5912,7 @@
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="14">
@@ -5933,7 +5955,7 @@
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="14">
@@ -5976,7 +5998,7 @@
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="14">
@@ -6019,7 +6041,7 @@
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="14">
@@ -6062,7 +6084,7 @@
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="14">
@@ -6105,7 +6127,7 @@
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="14">
@@ -6148,7 +6170,7 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="14">
@@ -6191,7 +6213,7 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="14">
@@ -6234,131 +6256,131 @@
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="20"/>
       <c r="D53" s="21">
         <f>CPI!B63</f>
-        <v>127.8</v>
+        <v>127.73</v>
       </c>
       <c r="E53" s="31">
         <f>'CPI-Gec'!B63</f>
-        <v>127.8</v>
+        <v>127.73</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="31">
         <f>CPI!C63</f>
-        <v>126.48</v>
+        <v>126.42</v>
       </c>
       <c r="I53" s="31">
         <f>'CPI-Gec'!C63</f>
-        <v>126.48</v>
+        <v>126.42</v>
       </c>
       <c r="J53" s="20"/>
       <c r="K53" s="31"/>
       <c r="L53" s="88">
         <f>SUM(CPI!D52:D63)</f>
-        <v>-0.27368319558520593</v>
+        <v>-0.32873195305609393</v>
       </c>
       <c r="M53" s="88">
         <f>SUM('CPI-Gec'!D52:D63)</f>
-        <v>5.2844465674745322</v>
+        <v>5.2293978100036442</v>
       </c>
       <c r="O53" s="88"/>
       <c r="P53" s="88">
         <f>SUM(CPI!E52:E63)</f>
-        <v>-1.8536020633288297</v>
+        <v>-1.9012778678580311</v>
       </c>
       <c r="Q53" s="88">
         <f>SUM('CPI-Gec'!E52:E63)</f>
-        <v>3.557894581450638</v>
+        <v>3.5102187769214366</v>
       </c>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C54" s="20"/>
       <c r="D54" s="21">
         <f>CPI!B64</f>
-        <v>127.8</v>
+        <v>127.73</v>
       </c>
       <c r="E54" s="31">
         <f>'CPI-Gec'!B64</f>
-        <v>127.8</v>
+        <v>127.73</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="31">
         <f>CPI!C64</f>
-        <v>126.48</v>
+        <v>126.42</v>
       </c>
       <c r="I54" s="31">
         <f>'CPI-Gec'!C64</f>
-        <v>126.48</v>
+        <v>126.42</v>
       </c>
       <c r="J54" s="20"/>
       <c r="K54" s="31"/>
       <c r="L54" s="88">
         <f>SUM(CPI!D53:D64)</f>
-        <v>2.767252476929416</v>
+        <v>2.712203719458528</v>
       </c>
       <c r="M54" s="88">
         <f>SUM('CPI-Gec'!D53:D64)</f>
-        <v>3.5280352538767712</v>
+        <v>3.4729864964058832</v>
       </c>
       <c r="O54" s="88"/>
       <c r="P54" s="88">
         <f>SUM(CPI!E53:E64)</f>
-        <v>1.4104698858105724</v>
+        <v>1.362794081281371</v>
       </c>
       <c r="Q54" s="88">
         <f>SUM('CPI-Gec'!E53:E64)</f>
-        <v>1.5927754461030563</v>
+        <v>1.5450996415738549</v>
       </c>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="20"/>
       <c r="D55" s="21">
         <f>CPI!B65</f>
-        <v>127.8</v>
+        <v>127.73</v>
       </c>
       <c r="E55" s="31">
         <f>'CPI-Gec'!B65</f>
-        <v>127.8</v>
+        <v>127.73</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="31">
         <f>CPI!C65</f>
-        <v>126.48</v>
+        <v>126.42</v>
       </c>
       <c r="I55" s="31">
         <f>'CPI-Gec'!C65</f>
-        <v>126.48</v>
+        <v>126.42</v>
       </c>
       <c r="J55" s="20"/>
       <c r="K55" s="31"/>
       <c r="L55" s="88">
         <f>SUM(CPI!D54:D65)</f>
-        <v>2.2927852473355159</v>
+        <v>2.2377364898646279</v>
       </c>
       <c r="M55" s="88">
         <f>SUM('CPI-Gec'!D54:D65)</f>
-        <v>2.8392183981231334</v>
+        <v>2.7841696406522454</v>
       </c>
       <c r="O55" s="88"/>
       <c r="P55" s="88">
         <f>SUM(CPI!E54:E65)</f>
-        <v>0.95362929913107575</v>
+        <v>0.90595349460187435</v>
       </c>
       <c r="Q55" s="88">
         <f>SUM('CPI-Gec'!E54:E65)</f>
-        <v>0.9021788027239408</v>
+        <v>0.8545029981947394</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
@@ -6542,7 +6564,7 @@
     </row>
     <row r="73" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -6555,43 +6577,43 @@
     </row>
     <row r="81" spans="2:6" ht="14.3" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C87" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C89" s="2">
         <v>104.05</v>
@@ -6608,7 +6630,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C90" s="2">
         <v>104.97</v>
@@ -6625,7 +6647,7 @@
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C91" s="2">
         <v>105.37</v>
@@ -6642,7 +6664,7 @@
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C92" s="2">
         <v>106.08</v>
@@ -6659,7 +6681,7 @@
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2">
         <v>105.94</v>
@@ -6676,7 +6698,7 @@
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2">
         <v>105.84</v>
@@ -6693,7 +6715,7 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C95" s="2">
         <v>106.9</v>
@@ -6710,7 +6732,7 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C96" s="2">
         <v>107.37</v>
@@ -6727,7 +6749,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97" s="2">
         <v>106.7</v>
@@ -6744,7 +6766,7 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="2">
         <v>107.16</v>
@@ -6761,7 +6783,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="2">
         <v>106.73</v>
@@ -6778,7 +6800,7 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C100" s="2">
         <v>106.8</v>
@@ -6795,7 +6817,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2">
         <v>105.97</v>
@@ -6812,7 +6834,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B102" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2">
         <v>106.64</v>
@@ -6829,7 +6851,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C103" s="2">
         <v>106.85</v>
@@ -6846,7 +6868,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C104" s="2">
         <v>107.34</v>
@@ -6863,7 +6885,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2">
         <v>107.18</v>
@@ -6880,7 +6902,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C106" s="2">
         <v>107.51</v>
@@ -6897,7 +6919,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B107" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C107" s="2">
         <v>108.69</v>
@@ -6914,7 +6936,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B108" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C108" s="2">
         <v>108.13</v>
@@ -6931,7 +6953,7 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B109" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C109" s="2">
         <v>107.88</v>
@@ -6948,7 +6970,7 @@
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B110" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C110" s="2">
         <v>108.47</v>
@@ -6965,7 +6987,7 @@
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2">
         <v>107.61</v>
@@ -6982,7 +7004,7 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B112" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C112" s="2">
         <v>107.85</v>
@@ -6999,7 +7021,7 @@
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C113" s="2">
         <v>107.62</v>
@@ -7016,7 +7038,7 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C114" s="2">
         <v>108.57</v>
@@ -7033,7 +7055,7 @@
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2">
         <v>108.87</v>
@@ -7050,7 +7072,7 @@
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B116" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C116" s="2">
         <v>109.36</v>
@@ -7067,7 +7089,7 @@
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B117" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117" s="2">
         <v>109.46</v>
@@ -7084,7 +7106,7 @@
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C118" s="2">
         <v>109.67</v>
@@ -7101,7 +7123,7 @@
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B119" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C119" s="2">
         <v>110.23</v>
@@ -7118,7 +7140,7 @@
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B120" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C120" s="2">
         <v>110.71</v>
@@ -7135,7 +7157,7 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B121" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C121" s="2">
         <v>110.79</v>
@@ -7152,7 +7174,7 @@
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C122" s="2">
         <v>112.18</v>
@@ -7169,7 +7191,7 @@
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B123" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C123" s="2">
         <v>113.17</v>
@@ -7186,7 +7208,7 @@
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B124" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C124" s="2">
         <v>114.01</v>
@@ -7203,7 +7225,7 @@
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B125" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C125" s="2">
         <v>114.53</v>
@@ -7220,7 +7242,7 @@
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B126" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C126" s="2">
         <v>115.27</v>
@@ -7237,7 +7259,7 @@
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B127" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C127" s="2">
         <v>119.46</v>
@@ -7254,7 +7276,7 @@
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B128" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C128" s="2">
         <v>119.81</v>
@@ -7271,7 +7293,7 @@
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C129" s="2">
         <v>119.05</v>
@@ -7288,7 +7310,7 @@
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C130" s="2">
         <v>119.05</v>
@@ -7305,7 +7327,7 @@
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C131" s="2">
         <v>121.57</v>
@@ -7322,7 +7344,7 @@
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C132" s="2">
         <v>123.95</v>
@@ -7339,7 +7361,7 @@
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C133" s="2">
         <v>126.89</v>
@@ -7356,7 +7378,7 @@
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C134" s="2">
         <v>128.25</v>
@@ -7373,7 +7395,7 @@
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C135" s="2">
         <v>124.35</v>
@@ -7390,7 +7412,7 @@
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C136" s="2">
         <v>124.94</v>
@@ -7407,7 +7429,7 @@
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C137" s="2">
         <v>123.21</v>
@@ -7424,7 +7446,7 @@
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2">
         <v>124.45</v>
@@ -7441,7 +7463,7 @@
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C139" s="2">
         <v>124.72</v>
@@ -7458,7 +7480,7 @@
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C140" s="2">
         <v>126.01</v>
@@ -7475,7 +7497,7 @@
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C141" s="2">
         <v>126.26</v>
@@ -7492,7 +7514,7 @@
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C142" s="2">
         <v>125.83</v>
@@ -7509,7 +7531,7 @@
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C143" s="2">
         <v>127.13</v>
@@ -7526,7 +7548,7 @@
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C144" s="2">
         <v>127.7</v>
@@ -7543,7 +7565,7 @@
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B145" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C145" s="2">
         <v>127.16</v>
@@ -7560,7 +7582,7 @@
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -7580,8 +7602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09AFBAED-7D55-4B66-B07B-3DC878C8D33C}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -7597,71 +7619,71 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="42.8" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>127</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>149</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="E5" t="s">
         <v>129</v>
       </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
-      </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="23">
         <v>104.05</v>
@@ -7686,7 +7708,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="23">
         <v>104.97</v>
@@ -7713,7 +7735,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="23">
         <v>105.37</v>
@@ -7740,7 +7762,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="23">
         <v>106.08</v>
@@ -7767,7 +7789,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="23">
         <v>105.94</v>
@@ -7794,7 +7816,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="23">
         <v>105.84</v>
@@ -7821,7 +7843,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="23">
         <v>106.9</v>
@@ -7848,7 +7870,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="23">
         <v>107.37</v>
@@ -7875,7 +7897,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="23">
         <v>106.7</v>
@@ -7902,7 +7924,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="23">
         <v>107.16</v>
@@ -7930,7 +7952,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="23">
         <v>106.73</v>
@@ -7958,7 +7980,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="23">
         <v>106.8</v>
@@ -7986,7 +8008,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="23">
         <v>105.97</v>
@@ -8024,7 +8046,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="23">
         <v>106.64</v>
@@ -8061,7 +8083,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="23">
         <v>106.85</v>
@@ -8098,7 +8120,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="23">
         <v>107.34</v>
@@ -8135,7 +8157,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="23">
         <v>107.18</v>
@@ -8172,7 +8194,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="23">
         <v>107.51</v>
@@ -8209,7 +8231,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="23">
         <v>108.69</v>
@@ -8246,7 +8268,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="23">
         <v>108.13</v>
@@ -8283,7 +8305,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="23">
         <v>107.88</v>
@@ -8320,7 +8342,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="23">
         <v>108.47</v>
@@ -8357,7 +8379,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="23">
         <v>107.61</v>
@@ -8394,7 +8416,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="23">
         <v>107.85</v>
@@ -8431,7 +8453,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="23">
         <v>107.62</v>
@@ -8466,7 +8488,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="23">
         <v>108.57</v>
@@ -8501,7 +8523,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="23">
         <v>108.87</v>
@@ -8536,7 +8558,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="23">
         <v>109.36</v>
@@ -8571,7 +8593,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="23">
         <v>109.46</v>
@@ -8606,7 +8628,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="23">
         <v>109.67</v>
@@ -8641,7 +8663,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="23">
         <v>110.23</v>
@@ -8676,7 +8698,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" s="23">
         <v>110.71</v>
@@ -8711,7 +8733,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="23">
         <v>110.79</v>
@@ -8746,7 +8768,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="23">
         <v>112.18</v>
@@ -8781,7 +8803,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="23">
         <v>113.17</v>
@@ -8816,7 +8838,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="23">
         <v>114.01</v>
@@ -8851,7 +8873,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="23">
         <v>114.53</v>
@@ -8886,7 +8908,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="23">
         <v>115.27</v>
@@ -8921,7 +8943,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="23">
         <v>119.46</v>
@@ -8956,7 +8978,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="23">
         <v>119.81</v>
@@ -8991,7 +9013,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="23">
         <v>119.05</v>
@@ -9026,7 +9048,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="23">
         <v>119.05</v>
@@ -9061,7 +9083,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" s="23">
         <v>121.57</v>
@@ -9096,7 +9118,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" s="23">
         <v>123.95</v>
@@ -9131,7 +9153,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="23">
         <v>126.89</v>
@@ -9166,7 +9188,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="23">
         <v>128.25</v>
@@ -9201,7 +9223,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" s="23">
         <v>124.35</v>
@@ -9236,7 +9258,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="23">
         <v>124.94</v>
@@ -9271,7 +9293,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="23">
         <v>123.21</v>
@@ -9306,7 +9328,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="23">
         <v>124.45</v>
@@ -9341,7 +9363,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" s="23">
         <v>124.72</v>
@@ -9376,7 +9398,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="23">
         <v>126.01</v>
@@ -9411,7 +9433,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="23">
         <v>126.26</v>
@@ -9446,7 +9468,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="23">
         <v>125.83</v>
@@ -9481,7 +9503,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="23">
         <v>127.13</v>
@@ -9516,7 +9538,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="23">
         <v>127.7</v>
@@ -9551,7 +9573,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="23">
         <v>127.16</v>
@@ -9586,48 +9608,48 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="28">
-        <v>127.8</v>
-      </c>
-      <c r="C63" s="28">
-        <v>126.48</v>
+        <v>150</v>
+      </c>
+      <c r="B63" s="181">
+        <v>127.73</v>
+      </c>
+      <c r="C63" s="181">
+        <v>126.42</v>
       </c>
       <c r="D63" s="91">
         <f t="shared" si="3"/>
-        <v>0.50330292544824573</v>
+        <v>0.44825416797735773</v>
       </c>
       <c r="E63" s="91">
         <f t="shared" si="4"/>
-        <v>0.50059594755662573</v>
+        <v>0.45292014302742434</v>
       </c>
       <c r="F63" s="30">
         <f t="shared" si="37"/>
-        <v>-0.35087719298245723</v>
+        <v>-0.40545808966860886</v>
       </c>
       <c r="G63" s="30">
         <f t="shared" si="37"/>
-        <v>-1.9382850054271872</v>
+        <v>-1.9848038455574368</v>
       </c>
       <c r="H63" s="23">
         <f t="shared" ref="H63:I63" si="51">SUM(D52:D63)</f>
-        <v>-0.27368319558520593</v>
+        <v>-0.32873195305609393</v>
       </c>
       <c r="I63" s="23">
         <f t="shared" si="51"/>
-        <v>-1.8536020633288297</v>
+        <v>-1.9012778678580311</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="28">
-        <v>127.8</v>
+        <v>127.73</v>
       </c>
       <c r="C64" s="28">
-        <v>126.48</v>
+        <v>126.42</v>
       </c>
       <c r="D64" s="91">
         <f t="shared" si="3"/>
@@ -9639,30 +9661,30 @@
       </c>
       <c r="F64" s="30">
         <f t="shared" si="37"/>
-        <v>2.7744270205066313</v>
+        <v>2.7181342983514378</v>
       </c>
       <c r="G64" s="30">
         <f t="shared" si="37"/>
-        <v>1.3705217600384678</v>
+        <v>1.3224332772301173</v>
       </c>
       <c r="H64" s="23">
         <f t="shared" ref="H64:I64" si="52">SUM(D53:D64)</f>
-        <v>2.767252476929416</v>
+        <v>2.712203719458528</v>
       </c>
       <c r="I64" s="23">
         <f t="shared" si="52"/>
-        <v>1.4104698858105724</v>
+        <v>1.362794081281371</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B65" s="28">
-        <v>127.8</v>
+        <v>127.73</v>
       </c>
       <c r="C65" s="28">
-        <v>126.48</v>
+        <v>126.42</v>
       </c>
       <c r="D65" s="91">
         <f t="shared" si="3"/>
@@ -9674,23 +9696,23 @@
       </c>
       <c r="F65" s="30">
         <f t="shared" si="37"/>
-        <v>2.2890987674083485</v>
+        <v>2.2330718744997702</v>
       </c>
       <c r="G65" s="30">
         <f t="shared" si="37"/>
-        <v>0.9095260890378265</v>
+        <v>0.86165629487793272</v>
       </c>
       <c r="H65" s="23">
         <f t="shared" ref="H65:I65" si="53">SUM(D54:D65)</f>
-        <v>2.2927852473355159</v>
+        <v>2.2377364898646279</v>
       </c>
       <c r="I65" s="23">
         <f t="shared" si="53"/>
-        <v>0.95362929913107575</v>
+        <v>0.90595349460187435</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pfVHnA3B1WuKA3AGGDMWtc2JdDla2/QyjsSJoXTEbnQGNy/NRT8yHF22laNbfislsgHQtJXbQxw9eTAdgDnm1A==" saltValue="wjkFXTkS/TlBGplUpDKkug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MR0R55CPZD6r++xubYzry4UJKoIOLdYdA5aCNU8pzPA/o4iEx0dUpa1r8iV6b+c+xDEb03TGN0YnATNK1HEDXw==" saltValue="n/iewzdc2Nm4HuMZIxPVwg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9699,8 +9721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2A478D-3955-4D14-98C1-E56BA98D99C4}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -9716,74 +9738,74 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="42.8" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="25" t="s">
-        <v>127</v>
-      </c>
       <c r="F4" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="I4" s="25" t="s">
         <v>149</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="C5" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="E5" t="s">
         <v>129</v>
       </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
-      </c>
       <c r="F5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="23">
         <v>104.05</v>
@@ -9808,7 +9830,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" s="23">
         <v>104.97</v>
@@ -9835,7 +9857,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="23">
         <v>105.37</v>
@@ -9862,7 +9884,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="23">
         <v>106.08</v>
@@ -9889,7 +9911,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="23">
         <v>105.94</v>
@@ -9916,7 +9938,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="23">
         <v>105.84</v>
@@ -9943,7 +9965,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" s="23">
         <v>106.9</v>
@@ -9970,7 +9992,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13" s="23">
         <v>107.37</v>
@@ -9997,7 +10019,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="23">
         <v>106.7</v>
@@ -10024,7 +10046,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B15" s="23">
         <v>107.16</v>
@@ -10051,7 +10073,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="23">
         <v>106.73</v>
@@ -10078,7 +10100,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="23">
         <v>106.8</v>
@@ -10105,7 +10127,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="27">
         <v>105.97</v>
@@ -10142,7 +10164,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="27">
         <v>106.66</v>
@@ -10179,7 +10201,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B20" s="27">
         <v>106.91</v>
@@ -10216,7 +10238,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="27">
         <v>107.45</v>
@@ -10253,7 +10275,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="27">
         <v>107.31</v>
@@ -10290,7 +10312,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23" s="27">
         <v>107.65</v>
@@ -10327,7 +10349,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B24" s="27">
         <v>108.81</v>
@@ -10364,7 +10386,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="27">
         <v>108.23</v>
@@ -10401,7 +10423,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26" s="27">
         <v>107.97</v>
@@ -10438,7 +10460,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="27">
         <v>108.55</v>
@@ -10475,7 +10497,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="27">
         <v>107.66</v>
@@ -10512,7 +10534,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="27">
         <v>107.9</v>
@@ -10549,7 +10571,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B30" s="27">
         <v>107.64</v>
@@ -10586,7 +10608,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B31" s="27">
         <v>108.52</v>
@@ -10623,7 +10645,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B32" s="27">
         <v>108.78</v>
@@ -10660,7 +10682,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B33" s="27">
         <v>109.24</v>
@@ -10697,7 +10719,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B34" s="27">
         <v>109.34</v>
@@ -10734,7 +10756,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B35" s="27">
         <v>109.5</v>
@@ -10771,7 +10793,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" s="27">
         <v>109.94</v>
@@ -10808,7 +10830,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" s="27">
         <v>110.39</v>
@@ -10845,7 +10867,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="27">
         <v>110.26</v>
@@ -10882,7 +10904,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" s="27">
         <v>111.2</v>
@@ -10919,7 +10941,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="27">
         <v>111.32</v>
@@ -10956,7 +10978,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" s="27">
         <v>111.6</v>
@@ -10993,7 +11015,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="27">
         <v>111.05</v>
@@ -11030,7 +11052,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="27">
         <v>112.33</v>
@@ -11067,7 +11089,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B44" s="27">
         <v>113.4</v>
@@ -11104,7 +11126,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B45" s="27">
         <v>114.84</v>
@@ -11141,7 +11163,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B46" s="27">
         <v>115.49</v>
@@ -11178,7 +11200,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="27">
         <v>116.3</v>
@@ -11215,7 +11237,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" s="27">
         <v>117.53</v>
@@ -11252,7 +11274,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B49" s="27">
         <v>118.1</v>
@@ -11289,7 +11311,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="27">
         <v>118.81</v>
@@ -11326,7 +11348,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B51" s="27">
         <v>121.27</v>
@@ -11363,7 +11385,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" s="27">
         <v>123.4</v>
@@ -11400,7 +11422,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B53" s="27">
         <v>124.25</v>
@@ -11437,7 +11459,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B54" s="27">
         <v>123.9</v>
@@ -11474,7 +11496,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B55" s="27">
         <v>125.24</v>
@@ -11511,7 +11533,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56" s="27">
         <v>125.6</v>
@@ -11548,7 +11570,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B57" s="27">
         <v>126.61</v>
@@ -11585,7 +11607,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="27">
         <v>126.9</v>
@@ -11622,7 +11644,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" s="23">
         <v>125.83</v>
@@ -11659,7 +11681,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" s="23">
         <v>127.13</v>
@@ -11696,7 +11718,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B61" s="23">
         <v>127.7</v>
@@ -11733,7 +11755,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B62" s="23">
         <v>127.16</v>
@@ -11770,50 +11792,50 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="28">
-        <v>127.8</v>
-      </c>
-      <c r="C63" s="28">
-        <v>126.48</v>
+        <v>150</v>
+      </c>
+      <c r="B63" s="181">
+        <v>127.73</v>
+      </c>
+      <c r="C63" s="181">
+        <v>126.42</v>
       </c>
       <c r="D63" s="91">
         <f t="shared" si="3"/>
-        <v>0.50330292544824573</v>
+        <v>0.44825416797735773</v>
       </c>
       <c r="E63" s="91">
         <f t="shared" si="4"/>
-        <v>0.50059594755662573</v>
+        <v>0.45292014302742434</v>
       </c>
       <c r="F63" s="30">
         <f t="shared" si="37"/>
-        <v>5.384678815865418</v>
+        <v>5.3269563783293616</v>
       </c>
       <c r="G63" s="30">
         <f t="shared" si="37"/>
-        <v>3.5617784328174862</v>
+        <v>3.5126504544338077</v>
       </c>
       <c r="H63" s="23">
         <f t="shared" ref="H63:I63" si="51">SUM(D52:D63)</f>
-        <v>5.2844465674745322</v>
+        <v>5.2293978100036442</v>
       </c>
       <c r="I63" s="23">
         <f t="shared" si="51"/>
-        <v>3.557894581450638</v>
+        <v>3.5102187769214366</v>
       </c>
       <c r="J63" s="26"/>
       <c r="K63" s="26"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B64" s="28">
-        <v>127.8</v>
+        <v>127.73</v>
       </c>
       <c r="C64" s="28">
-        <v>126.48</v>
+        <v>126.42</v>
       </c>
       <c r="D64" s="91">
         <f t="shared" si="3"/>
@@ -11825,30 +11847,30 @@
       </c>
       <c r="F64" s="30">
         <f t="shared" si="37"/>
-        <v>3.5656401944894611</v>
+        <v>3.5089141004862157</v>
       </c>
       <c r="G64" s="30">
         <f t="shared" si="37"/>
-        <v>1.565887737894478</v>
+        <v>1.5177065767284947</v>
       </c>
       <c r="H64" s="23">
         <f t="shared" ref="H64:I64" si="52">SUM(D53:D64)</f>
-        <v>3.5280352538767712</v>
+        <v>3.4729864964058832</v>
       </c>
       <c r="I64" s="23">
         <f t="shared" si="52"/>
-        <v>1.5927754461030563</v>
+        <v>1.5450996415738549</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B65" s="28">
-        <v>127.8</v>
+        <v>127.73</v>
       </c>
       <c r="C65" s="28">
-        <v>126.48</v>
+        <v>126.42</v>
       </c>
       <c r="D65" s="91">
         <f t="shared" si="3"/>
@@ -11860,23 +11882,23 @@
       </c>
       <c r="F65" s="30">
         <f t="shared" si="37"/>
-        <v>2.857142857142847</v>
+        <v>2.8008048289738463</v>
       </c>
       <c r="G65" s="30">
         <f t="shared" si="37"/>
-        <v>0.86928782199537924</v>
+        <v>0.8214371161974654</v>
       </c>
       <c r="H65" s="23">
         <f t="shared" ref="H65:I65" si="53">SUM(D54:D65)</f>
-        <v>2.8392183981231334</v>
+        <v>2.7841696406522454</v>
       </c>
       <c r="I65" s="23">
         <f t="shared" si="53"/>
-        <v>0.9021788027239408</v>
+        <v>0.8545029981947394</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="l5Ww0RP51EpQ49v1nNm/1NMBm/Sk0wCDCO2/uzw9vOaiUHl8wZTeEStpZpkjp0t58yboBnCeQ8nu3GJS3ZYQqA==" saltValue="lqT8y7pt/s3hpwSnOR9rpQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aquYoyXtDnlvFQZDEPUA11G7LxztAGqMo4AaXUWss6uJT/H8/2sTa877I20BpPPr36/vYaZL/iG9JFeQO/gnWg==" saltValue="IBqfY7Ei8G23nTYJ1WozPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{A0B07154-AF38-4BF9-AEE7-97C2CB4806CF}"/>
   </hyperlinks>
